--- a/medicine/Enfance/Fantômette_à_la_Mer_de_sable/Fantômette_à_la_Mer_de_sable.xlsx
+++ b/medicine/Enfance/Fantômette_à_la_Mer_de_sable/Fantômette_à_la_Mer_de_sable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette à la Mer de sable est le 18e roman de la série humoristique Fantômette créée par Georges Chaulet. Le roman est dédié à Jean Richard, alors propriétaire de la Mer de sable.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette à la Mer de sable a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1971 en langue française.
 Mise en place de l'intrigue (chapitres 1 et 2)
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,9 +644,11 @@
           <t>Appréciation critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette[3], indique en page 143 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette, indique en page 143 :
 « La cantatrice et son fils peuvent rappeler la Castafiore et le jeune Abdallah, les personnages créés par Hergé dans les Aventures de Tintin. (…) Ce roman est l'un des rares travaux de commande auquel Georges Chaulet se soit livré dans le cadre des aventures de Fantômette. En effet, le directeur littéraire des collections jeunesse de l'époque, Louis Mirman, constatant le succès du parc thématique d'Ermenonville, suggéra à Chaulet l'idée d'y situer l'une des aventures de son héroïne. Le volume en question a d'ailleurs connu un succès commercial certain. Il est à noter que le parc appartenait alors à Jean Richard, ce qui explique la dédicace. »
 </t>
         </is>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_%C3%A0_la_Mer_de_sable</t>
+          <t>Fantômette_à_la_Mer_de_sable</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Fantômette retrouvera le grand couturier Christophe Pimpan dans Fantômette et le Masque d'argent, où il sera la victime d'un vol de secrets artistiques.
 </t>
